--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente l'acteur  SNR. </t>
+    <t xml:space="preserve">Cet attribut représente l'acteur SNR. </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1382,10 +1382,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1457,10 +1457,10 @@
         <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,26 +253,43 @@
     <t>ActorXDS</t>
   </si>
   <si>
-    <t>ActorSNR.XCN1</t>
+    <t>ActorSNR.XCN1[x]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR)
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR}
 </t>
   </si>
   <si>
-    <t>Identifiant</t>
+    <t>Identifiant de l'acteur</t>
   </si>
   <si>
     <t>9.8.7.6.5.4.3.2.1</t>
   </si>
   <si>
-    <t>ActorXDS.XCN1</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN1[x]</t>
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}
+</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>RI</t>
   </si>
   <si>
     <t>ActorSNR.XCN2</t>
@@ -282,9 +299,6 @@
 </t>
   </si>
   <si>
-    <t>Nom du système</t>
-  </si>
-  <si>
     <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
   </si>
   <si>
@@ -295,9 +309,6 @@
   </si>
   <si>
     <t>ActorSNR.XCN3</t>
-  </si>
-  <si>
-    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
   <si>
     <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
@@ -368,9 +379,6 @@
 </t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>Type de nom : Valeur en fonction de l’auteur :  D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
@@ -380,9 +388,6 @@
     <t>ActorSNR.XCN13</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>Type d’identifiant</t>
   </si>
   <si>
@@ -390,6 +395,12 @@
   </si>
   <si>
     <t>Valeur ne provenant pas de l’en-tête CDA</t>
+  </si>
+  <si>
+    <t>Nom du système</t>
+  </si>
+  <si>
+    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
 </sst>
 </file>
@@ -694,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -713,7 +724,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1030,19 +1041,17 @@
         <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
@@ -1057,15 +1066,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1088,13 +1097,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1106,7 +1115,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1145,7 +1154,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1160,15 +1169,15 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1191,13 +1200,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1209,7 +1218,7 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s" s="2">
         <v>73</v>
@@ -1248,7 +1257,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -1263,15 +1272,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1294,13 +1303,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1351,7 +1360,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -1366,15 +1375,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1382,10 +1391,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1397,13 +1406,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1454,13 +1463,13 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
@@ -1469,15 +1478,15 @@
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1500,13 +1509,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1521,7 +1530,7 @@
         <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>73</v>
@@ -1557,7 +1566,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -1572,15 +1581,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1588,10 +1597,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1603,13 +1612,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1660,13 +1669,13 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
@@ -1675,15 +1684,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1706,13 +1715,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1727,7 +1736,7 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>73</v>
@@ -1763,7 +1772,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -1778,15 +1787,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1809,13 +1818,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1866,22 +1875,422 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="M13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>123</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="2"/>
+      <c r="AI14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>9.8.7.6.5.4.3.2.1</t>
@@ -1002,7 +1005,7 @@
         <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1017,7 +1020,7 @@
         <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s" s="2">
         <v>73</v>
@@ -1041,17 +1044,17 @@
         <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
@@ -1066,7 +1069,7 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -1097,13 +1100,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1115,7 +1118,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1154,7 +1157,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1169,7 +1172,7 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1200,13 +1203,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1218,7 +1221,7 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s" s="2">
         <v>73</v>
@@ -1257,7 +1260,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -1272,15 +1275,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1303,13 +1306,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1360,7 +1363,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -1375,15 +1378,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1406,13 +1409,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1463,7 +1466,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -1478,15 +1481,15 @@
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1509,13 +1512,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1566,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -1581,15 +1584,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1612,13 +1615,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1669,7 +1672,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1684,15 +1687,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1715,13 +1718,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1736,7 +1739,7 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>73</v>
@@ -1772,7 +1775,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -1787,15 +1790,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1818,13 +1821,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1875,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -1890,15 +1893,15 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1921,13 +1924,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1978,7 +1981,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -1993,15 +1996,15 @@
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2024,13 +2027,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2081,7 +2084,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2096,15 +2099,15 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2128,7 +2131,7 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2180,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2225,7 +2228,7 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2277,7 +2280,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>9.8.7.6.5.4.3.2.1</t>
@@ -1005,7 +1002,7 @@
         <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1020,56 +1017,56 @@
         <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AG3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -1100,13 +1097,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1118,7 +1115,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1157,22 +1154,22 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1203,13 +1200,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1221,7 +1218,7 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s" s="2">
         <v>73</v>
@@ -1260,30 +1257,30 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1306,13 +1303,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1363,30 +1360,30 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1409,13 +1406,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1466,30 +1463,30 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1512,13 +1509,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1569,30 +1566,30 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1615,13 +1612,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1672,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1687,15 +1684,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1718,13 +1715,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1739,66 +1736,66 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="U10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF10" t="s" s="2">
+      <c r="AG10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1821,13 +1818,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1878,7 +1875,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -1893,15 +1890,15 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1924,13 +1921,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1981,7 +1978,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -1996,15 +1993,15 @@
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2027,13 +2024,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2084,30 +2081,30 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2131,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2183,7 +2180,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2201,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2228,7 +2225,7 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2280,7 +2277,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR
 </t>
   </si>
   <si>
@@ -282,8 +282,8 @@
     <t>author/assignedAuthor/id@extension</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}
-</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINShttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNRstring {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}</t>
   </si>
   <si>
     <t>U</t>
@@ -724,7 +724,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="197.09765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,43 +253,39 @@
     <t>ActorXDS</t>
   </si>
   <si>
-    <t>ActorSNR.XCN1[x]</t>
+    <t>ActorSNR.XCN1</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Identifiant
+</t>
+  </si>
+  <si>
+    <t>Identifiant de l'acteur</t>
+  </si>
+  <si>
+    <t>9.8.7.6.5.4.3.2.1</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN1</t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN1.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR
 </t>
   </si>
   <si>
-    <t>Identifiant de l'acteur</t>
-  </si>
-  <si>
-    <t>9.8.7.6.5.4.3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>ActorXDS.XCN1[x]</t>
-  </si>
-  <si>
-    <t>author/assignedAuthor/id@extension</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
-https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINShttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNRstring {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>RI</t>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>Identifiant.value[x]</t>
   </si>
   <si>
     <t>ActorSNR.XCN2</t>
@@ -299,6 +295,9 @@
 </t>
   </si>
   <si>
+    <t>Nom du système</t>
+  </si>
+  <si>
     <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
   </si>
   <si>
@@ -309,6 +308,9 @@
   </si>
   <si>
     <t>ActorSNR.XCN3</t>
+  </si>
+  <si>
+    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
   <si>
     <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
@@ -382,6 +384,9 @@
     <t>Type de nom : Valeur en fonction de l’auteur :  D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>ActorXDS.XCN10</t>
   </si>
   <si>
@@ -391,16 +396,13 @@
     <t>Type d’identifiant</t>
   </si>
   <si>
+    <t>RI</t>
+  </si>
+  <si>
     <t>ActorXDS.XCN13</t>
   </si>
   <si>
     <t>Valeur ne provenant pas de l’en-tête CDA</t>
-  </si>
-  <si>
-    <t>Nom du système</t>
-  </si>
-  <si>
-    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
 </sst>
 </file>
@@ -705,7 +707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -724,7 +726,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="197.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1041,40 +1043,42 @@
         <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AG3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1097,13 +1101,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1115,47 +1119,47 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="T4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
@@ -1169,15 +1173,15 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1200,13 +1204,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1218,7 +1222,7 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
         <v>73</v>
@@ -1257,7 +1261,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -1272,15 +1276,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1303,13 +1307,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1360,7 +1364,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -1375,15 +1379,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1406,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1463,7 +1467,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -1478,15 +1482,15 @@
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1494,10 +1498,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1509,13 +1513,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1566,13 +1570,13 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1581,15 +1585,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1597,10 +1601,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1612,13 +1616,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1633,7 +1637,7 @@
         <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>73</v>
@@ -1669,13 +1673,13 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
@@ -1684,15 +1688,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1715,13 +1719,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1736,7 +1740,7 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>73</v>
@@ -1772,7 +1776,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -1787,15 +1791,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1818,13 +1822,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1836,7 +1840,7 @@
         <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>73</v>
@@ -1875,7 +1879,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -1890,15 +1894,15 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1921,13 +1925,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1939,7 +1943,7 @@
         <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>73</v>
@@ -1978,7 +1982,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -1993,304 +1997,7 @@
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH14" s="2"/>
-      <c r="AI14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH15" s="2"/>
-      <c r="AI15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorSNR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
